--- a/data/trans_orig/Q5417-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{436450B5-8B3F-416D-8A30-90D6751B7688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{220E9AE7-71F4-4B8D-B0F0-5152842E8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8174355-432E-4CAE-ABCB-862B6B1C3091}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A37EDBBC-2655-4E5E-9770-2BBA6D9B6B82}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="158">
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -215,307 +215,304 @@
     <t>0,55%</t>
   </si>
   <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>93,77%</t>
   </si>
   <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
 </sst>
 </file>
@@ -927,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E60084-9A25-4581-A206-DA3A94587414}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0FACAB-213B-4F22-9EEE-B4EF4D1F3E08}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2710,7 +2707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE00FC8C-6AD0-4E62-A060-DA8D8DB33882}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750A7462-97EA-465F-AC23-0A523F6AB2A6}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4041,7 +4038,7 @@
         <v>26</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -4050,13 +4047,13 @@
         <v>18376</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,10 +4068,10 @@
         <v>14866</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>74</v>
@@ -4155,10 +4152,10 @@
         <v>87</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,7 +4295,7 @@
         <v>26</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M35" s="7">
         <v>15</v>
@@ -4307,13 +4304,13 @@
         <v>18376</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,10 +4325,10 @@
         <v>14866</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>74</v>
@@ -4412,10 +4409,10 @@
         <v>87</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,7 +4490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDB7A1B-91DD-4113-9604-474D5D660574}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B516F37-4331-4A3C-AB94-1E5CD021B80B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4510,7 +4507,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5752,13 +5749,13 @@
         <v>2696</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5767,13 +5764,13 @@
         <v>9535</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5782,13 +5779,13 @@
         <v>12232</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5800,13 @@
         <v>6915</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -5818,13 +5815,13 @@
         <v>4623</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -5836,10 +5833,10 @@
         <v>22</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5851,13 @@
         <v>10210</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -5869,13 +5866,13 @@
         <v>32280</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -5884,10 +5881,10 @@
         <v>42491</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>115</v>
@@ -6009,13 +6006,13 @@
         <v>2696</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -6024,13 +6021,13 @@
         <v>9535</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -6039,13 +6036,13 @@
         <v>12232</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,13 +6057,13 @@
         <v>6915</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -6075,13 +6072,13 @@
         <v>4623</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -6093,10 +6090,10 @@
         <v>22</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6108,13 @@
         <v>10210</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H36" s="7">
         <v>26</v>
@@ -6126,13 +6123,13 @@
         <v>32280</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -6141,10 +6138,10 @@
         <v>42491</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>115</v>
@@ -6276,7 +6273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FF977A-1AFC-4D8D-89DB-81E25C176A99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B0A41B-6BA5-48D8-8643-1909DAD3A13F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7550,13 +7547,13 @@
         <v>12522</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -7565,10 +7562,10 @@
         <v>14797</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>133</v>
@@ -7586,10 +7583,10 @@
         <v>3274</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>135</v>
@@ -7607,7 +7604,7 @@
         <v>137</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -7616,13 +7613,13 @@
         <v>11130</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,13 +7634,13 @@
         <v>13606</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H31" s="7">
         <v>78</v>
@@ -7652,13 +7649,13 @@
         <v>43496</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M31" s="7">
         <v>98</v>
@@ -7667,13 +7664,13 @@
         <v>57102</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7688,13 +7685,13 @@
         <v>677198</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H32" s="7">
         <v>1592</v>
@@ -7703,13 +7700,13 @@
         <v>961952</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M32" s="7">
         <v>2588</v>
@@ -7718,13 +7715,13 @@
         <v>1639150</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7807,13 +7804,13 @@
         <v>12522</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M34" s="7">
         <v>27</v>
@@ -7822,10 +7819,10 @@
         <v>14797</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>133</v>
@@ -7843,10 +7840,10 @@
         <v>3274</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>135</v>
@@ -7864,7 +7861,7 @@
         <v>137</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M35" s="7">
         <v>19</v>
@@ -7873,13 +7870,13 @@
         <v>11130</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,13 +7891,13 @@
         <v>13606</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H36" s="7">
         <v>78</v>
@@ -7909,13 +7906,13 @@
         <v>43496</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M36" s="7">
         <v>98</v>
@@ -7924,13 +7921,13 @@
         <v>57102</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,13 +7942,13 @@
         <v>677198</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H37" s="7">
         <v>1592</v>
@@ -7960,13 +7957,13 @@
         <v>961952</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M37" s="7">
         <v>2588</v>
@@ -7975,13 +7972,13 @@
         <v>1639150</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5417-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{220E9AE7-71F4-4B8D-B0F0-5152842E8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7468488-AD07-4018-9E59-4921B320CFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A37EDBBC-2655-4E5E-9770-2BBA6D9B6B82}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58A1FFA5-F54F-4E11-BD3D-C87FCFF68F73}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -113,367 +113,367 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,6%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
     <t>2,99%</t>
   </si>
   <si>
     <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
   </si>
   <si>
     <t>5,52%</t>
@@ -924,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0FACAB-213B-4F22-9EEE-B4EF4D1F3E08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEEA4EA-0ACD-48D8-82B9-E139A71B2828}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2707,7 +2707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750A7462-97EA-465F-AC23-0A523F6AB2A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD581302-9DB7-4D1A-B99B-A91DA2ED06BB}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4035,10 +4035,10 @@
         <v>68</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -4047,13 +4047,13 @@
         <v>18376</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4068,13 @@
         <v>14866</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H31" s="7">
         <v>34</v>
@@ -4083,13 +4083,13 @@
         <v>37005</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M31" s="7">
         <v>48</v>
@@ -4098,13 +4098,13 @@
         <v>51871</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4119,13 @@
         <v>533169</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" s="7">
         <v>635</v>
@@ -4134,13 +4134,13 @@
         <v>677401</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M32" s="7">
         <v>1115</v>
@@ -4149,13 +4149,13 @@
         <v>1210570</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,10 +4292,10 @@
         <v>68</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="M35" s="7">
         <v>15</v>
@@ -4304,13 +4304,13 @@
         <v>18376</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4325,13 @@
         <v>14866</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -4340,13 +4340,13 @@
         <v>37005</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M36" s="7">
         <v>48</v>
@@ -4355,13 +4355,13 @@
         <v>51871</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4376,13 @@
         <v>533169</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H37" s="7">
         <v>635</v>
@@ -4391,13 +4391,13 @@
         <v>677401</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M37" s="7">
         <v>1115</v>
@@ -4406,13 +4406,13 @@
         <v>1210570</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,7 +4490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B516F37-4331-4A3C-AB94-1E5CD021B80B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A226F-56C1-4A58-9F4C-F2993B355D2B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4507,7 +4507,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5749,13 +5749,13 @@
         <v>2696</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5764,13 +5764,13 @@
         <v>9535</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5779,13 +5779,13 @@
         <v>12232</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5800,13 @@
         <v>6915</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -5833,10 +5833,10 @@
         <v>22</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5851,13 @@
         <v>10210</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -5866,13 +5866,13 @@
         <v>32280</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -5881,13 +5881,13 @@
         <v>42491</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5902,13 @@
         <v>571506</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H32" s="7">
         <v>618</v>
@@ -5917,13 +5917,13 @@
         <v>731493</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M32" s="7">
         <v>1223</v>
@@ -5932,13 +5932,13 @@
         <v>1302999</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6006,13 @@
         <v>2696</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -6021,13 +6021,13 @@
         <v>9535</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -6036,13 +6036,13 @@
         <v>12232</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6057,13 @@
         <v>6915</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -6090,10 +6090,10 @@
         <v>22</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6108,13 @@
         <v>10210</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H36" s="7">
         <v>26</v>
@@ -6123,13 +6123,13 @@
         <v>32280</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -6138,13 +6138,13 @@
         <v>42491</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6159,13 @@
         <v>571506</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H37" s="7">
         <v>618</v>
@@ -6174,13 +6174,13 @@
         <v>731493</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M37" s="7">
         <v>1223</v>
@@ -6189,13 +6189,13 @@
         <v>1302999</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,7 +6273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B0A41B-6BA5-48D8-8643-1909DAD3A13F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A419EE-8A40-46B2-9AB5-E578F7A5100B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6290,7 +6290,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7532,13 +7532,13 @@
         <v>2275</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -7547,13 +7547,13 @@
         <v>12522</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -7562,10 +7562,10 @@
         <v>14797</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>133</v>
@@ -7586,7 +7586,7 @@
         <v>134</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>135</v>
@@ -7637,10 +7637,10 @@
         <v>141</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H31" s="7">
         <v>78</v>
@@ -7649,10 +7649,10 @@
         <v>43496</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>145</v>
@@ -7789,13 +7789,13 @@
         <v>2275</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H34" s="7">
         <v>22</v>
@@ -7804,13 +7804,13 @@
         <v>12522</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M34" s="7">
         <v>27</v>
@@ -7819,10 +7819,10 @@
         <v>14797</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>133</v>
@@ -7843,7 +7843,7 @@
         <v>134</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>135</v>
@@ -7894,10 +7894,10 @@
         <v>141</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H36" s="7">
         <v>78</v>
@@ -7906,10 +7906,10 @@
         <v>43496</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>145</v>

--- a/data/trans_orig/Q5417-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7468488-AD07-4018-9E59-4921B320CFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1767A6A-FD02-44B4-8A5E-A17EDB16C864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58A1FFA5-F54F-4E11-BD3D-C87FCFF68F73}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{339A6F27-C6FA-4B80-9D49-0F94CF1360A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="159">
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -113,13 +113,13 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>1,6%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -134,70 +134,70 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,8%</t>
+    <t>1,68%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>96,13%</t>
   </si>
   <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>100%</t>
@@ -215,103 +215,100 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,58%</t>
+    <t>2,45%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>3,17%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,81%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>95,27%</t>
   </si>
   <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>91,17%</t>
   </si>
   <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
   </si>
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2016 (Tasa respuesta: 19,52%)</t>
@@ -323,196 +320,202 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>3,04%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>5,52%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>93,77%</t>
   </si>
   <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
 </sst>
 </file>
@@ -924,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEEA4EA-0ACD-48D8-82B9-E139A71B2828}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABC6A02-CC43-4288-B422-4FA310D1F53C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2707,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD581302-9DB7-4D1A-B99B-A91DA2ED06BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C1C4CD-37AE-4A62-A964-908B92A10E87}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4035,10 +4038,10 @@
         <v>68</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -4047,13 +4050,13 @@
         <v>18376</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,10 +4074,10 @@
         <v>73</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H31" s="7">
         <v>34</v>
@@ -4083,13 +4086,13 @@
         <v>37005</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M31" s="7">
         <v>48</v>
@@ -4098,13 +4101,13 @@
         <v>51871</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4122,13 @@
         <v>533169</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H32" s="7">
         <v>635</v>
@@ -4134,13 +4137,13 @@
         <v>677401</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M32" s="7">
         <v>1115</v>
@@ -4149,13 +4152,13 @@
         <v>1210570</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,10 +4295,10 @@
         <v>68</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M35" s="7">
         <v>15</v>
@@ -4304,13 +4307,13 @@
         <v>18376</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,10 +4331,10 @@
         <v>73</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -4340,13 +4343,13 @@
         <v>37005</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M36" s="7">
         <v>48</v>
@@ -4355,13 +4358,13 @@
         <v>51871</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4379,13 @@
         <v>533169</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H37" s="7">
         <v>635</v>
@@ -4391,13 +4394,13 @@
         <v>677401</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M37" s="7">
         <v>1115</v>
@@ -4406,13 +4409,13 @@
         <v>1210570</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,7 +4493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811A226F-56C1-4A58-9F4C-F2993B355D2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC62B13-608E-4BB8-9C53-AA90D2D31726}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4507,7 +4510,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5749,13 +5752,13 @@
         <v>2696</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5764,13 +5767,13 @@
         <v>9535</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -5779,10 +5782,10 @@
         <v>12232</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>99</v>
@@ -5806,7 +5809,7 @@
         <v>101</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -5815,13 +5818,13 @@
         <v>4623</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -5833,10 +5836,10 @@
         <v>22</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5854,13 @@
         <v>10210</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -5866,13 +5869,13 @@
         <v>32280</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -5881,13 +5884,13 @@
         <v>42491</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5905,13 @@
         <v>571506</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H32" s="7">
         <v>618</v>
@@ -5917,13 +5920,13 @@
         <v>731493</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M32" s="7">
         <v>1223</v>
@@ -5932,13 +5935,13 @@
         <v>1302999</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6009,13 @@
         <v>2696</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -6021,13 +6024,13 @@
         <v>9535</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -6036,10 +6039,10 @@
         <v>12232</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>99</v>
@@ -6063,7 +6066,7 @@
         <v>101</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -6072,13 +6075,13 @@
         <v>4623</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -6090,10 +6093,10 @@
         <v>22</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6111,13 @@
         <v>10210</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H36" s="7">
         <v>26</v>
@@ -6123,13 +6126,13 @@
         <v>32280</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M36" s="7">
         <v>37</v>
@@ -6138,13 +6141,13 @@
         <v>42491</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6162,13 @@
         <v>571506</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H37" s="7">
         <v>618</v>
@@ -6174,13 +6177,13 @@
         <v>731493</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M37" s="7">
         <v>1223</v>
@@ -6189,13 +6192,13 @@
         <v>1302999</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,7 +6276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A419EE-8A40-46B2-9AB5-E578F7A5100B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9290E7AD-BE68-4BF6-9F27-3E902658D22E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6290,7 +6293,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7532,13 +7535,13 @@
         <v>2275</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -7547,7 +7550,7 @@
         <v>12522</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>129</v>
@@ -7583,10 +7586,10 @@
         <v>3274</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>135</v>
@@ -7604,7 +7607,7 @@
         <v>137</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -7613,13 +7616,13 @@
         <v>11130</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,10 +7637,10 @@
         <v>13606</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>143</v>
@@ -7652,10 +7655,10 @@
         <v>144</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M31" s="7">
         <v>98</v>
@@ -7664,13 +7667,13 @@
         <v>57102</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +7688,13 @@
         <v>677198</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H32" s="7">
         <v>1592</v>
@@ -7700,13 +7703,13 @@
         <v>961952</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M32" s="7">
         <v>2588</v>
@@ -7715,13 +7718,13 @@
         <v>1639150</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7792,13 @@
         <v>2275</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H34" s="7">
         <v>22</v>
@@ -7804,7 +7807,7 @@
         <v>12522</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>129</v>
@@ -7840,10 +7843,10 @@
         <v>3274</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>135</v>
@@ -7861,7 +7864,7 @@
         <v>137</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M35" s="7">
         <v>19</v>
@@ -7870,13 +7873,13 @@
         <v>11130</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,10 +7894,10 @@
         <v>13606</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>143</v>
@@ -7909,10 +7912,10 @@
         <v>144</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M36" s="7">
         <v>98</v>
@@ -7921,13 +7924,13 @@
         <v>57102</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7945,13 @@
         <v>677198</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H37" s="7">
         <v>1592</v>
@@ -7957,13 +7960,13 @@
         <v>961952</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M37" s="7">
         <v>2588</v>
@@ -7972,13 +7975,13 @@
         <v>1639150</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5417-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1767A6A-FD02-44B4-8A5E-A17EDB16C864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{516CC565-B3A1-465F-A71E-8DD9752FC416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{339A6F27-C6FA-4B80-9D49-0F94CF1360A7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E0713A3B-749A-44D5-B796-39DA95F2AF45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="339">
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Completamente incapaz</t>
@@ -86,33 +86,210 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
     <t>1,49%</t>
   </si>
   <si>
@@ -122,9 +299,6 @@
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
     <t>1,18%</t>
   </si>
   <si>
@@ -167,9 +341,6 @@
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
     <t>3,89%</t>
   </si>
   <si>
@@ -200,15 +371,186 @@
     <t>97,12%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
     <t>1,3%</t>
   </si>
   <si>
@@ -269,9 +611,6 @@
     <t>4,98%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
     <t>6,71%</t>
   </si>
   <si>
@@ -314,12 +653,144 @@
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
     <t>1,22%</t>
   </si>
   <si>
@@ -338,9 +809,6 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
     <t>1,17%</t>
   </si>
   <si>
@@ -350,18 +818,12 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
     <t>0,16%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
     <t>1,44%</t>
   </si>
   <si>
@@ -419,103 +881,181 @@
     <t>Población según si es capaz de moverse de la cama a una silla que esté al lado de la misma en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
 </sst>
 </file>
@@ -927,8 +1467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABC6A02-CC43-4288-B422-4FA310D1F53C}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F6CAEA-D1C1-4A15-B6D1-7DC42EE4336F}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2195,31 +2735,31 @@
         <v>22</v>
       </c>
       <c r="H29" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>4337</v>
+        <v>897</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M29" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>5175</v>
+        <v>1735</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>26</v>
@@ -2231,49 +2771,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>1699</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H30" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>5332</v>
+        <v>1823</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>2</v>
+      </c>
+      <c r="N30" s="7">
+        <v>1823</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M30" s="7">
-        <v>7</v>
-      </c>
-      <c r="N30" s="7">
-        <v>7030</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,49 +2822,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>9359</v>
+        <v>1865</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="7">
+        <v>9</v>
+      </c>
+      <c r="I31" s="7">
+        <v>8845</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>11</v>
+      </c>
+      <c r="N31" s="7">
+        <v>10710</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="7">
-        <v>22</v>
-      </c>
-      <c r="I31" s="7">
-        <v>24115</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
-        <v>32</v>
-      </c>
-      <c r="N31" s="7">
-        <v>33474</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,49 +2873,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="D32" s="7">
-        <v>490570</v>
+        <v>289879</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="7">
+        <v>359</v>
+      </c>
+      <c r="I32" s="7">
+        <v>331369</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>659</v>
+      </c>
+      <c r="N32" s="7">
+        <v>621249</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="7">
-        <v>629</v>
-      </c>
-      <c r="I32" s="7">
-        <v>643059</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1139</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1133629</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,102 +2924,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D33" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I33" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N33" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="7">
-        <v>838</v>
+        <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="H34" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>4337</v>
+        <v>3440</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M34" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N34" s="7">
-        <v>5175</v>
+        <v>3440</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,43 +3034,43 @@
         <v>1699</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="H35" s="7">
+        <v>3</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3509</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M35" s="7">
         <v>5</v>
       </c>
-      <c r="I35" s="7">
-        <v>5332</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M35" s="7">
-        <v>7</v>
-      </c>
       <c r="N35" s="7">
-        <v>7030</v>
+        <v>5207</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,49 +3079,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D36" s="7">
-        <v>9359</v>
+        <v>7494</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H36" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I36" s="7">
-        <v>24115</v>
+        <v>15270</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M36" s="7">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N36" s="7">
-        <v>33474</v>
+        <v>22763</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,49 +3130,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>510</v>
+        <v>210</v>
       </c>
       <c r="D37" s="7">
-        <v>490570</v>
+        <v>200691</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H37" s="7">
-        <v>629</v>
+        <v>270</v>
       </c>
       <c r="I37" s="7">
-        <v>643059</v>
+        <v>311690</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="M37" s="7">
-        <v>1139</v>
+        <v>480</v>
       </c>
       <c r="N37" s="7">
-        <v>1133629</v>
+        <v>512380</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,63 +3181,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>220</v>
+      </c>
+      <c r="D38" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="7">
+        <v>290</v>
+      </c>
+      <c r="I38" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="7">
+        <v>510</v>
+      </c>
+      <c r="N38" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>838</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="7">
+        <v>5</v>
+      </c>
+      <c r="I39" s="7">
+        <v>4337</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M39" s="7">
+        <v>6</v>
+      </c>
+      <c r="N39" s="7">
+        <v>5175</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1699</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5</v>
+      </c>
+      <c r="I40" s="7">
+        <v>5332</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" s="7">
+        <v>7</v>
+      </c>
+      <c r="N40" s="7">
+        <v>7030</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>10</v>
+      </c>
+      <c r="D41" s="7">
+        <v>9359</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="7">
+        <v>22</v>
+      </c>
+      <c r="I41" s="7">
+        <v>24115</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" s="7">
+        <v>32</v>
+      </c>
+      <c r="N41" s="7">
+        <v>33474</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>510</v>
+      </c>
+      <c r="D42" s="7">
+        <v>490570</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="7">
+        <v>629</v>
+      </c>
+      <c r="I42" s="7">
+        <v>643059</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1139</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1133629</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>523</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>502466</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="7">
         <v>661</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>676842</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="7">
         <v>1184</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>1179308</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>54</v>
+      <c r="O43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2710,8 +3508,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C1C4CD-37AE-4A62-A964-908B92A10E87}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E39CF3-3E5E-4505-8D23-4DEBEF510532}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2727,7 +3525,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3963,49 +4761,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>7249</v>
+        <v>4086</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="H29" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>14546</v>
+        <v>999</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>21794</v>
+        <v>5085</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,49 +4812,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>4353</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="H30" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>14023</v>
+        <v>996</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M30" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N30" s="7">
-        <v>18376</v>
+        <v>996</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,49 +4863,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>14866</v>
+        <v>4165</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="H31" s="7">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I31" s="7">
-        <v>37005</v>
+        <v>8632</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="M31" s="7">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="N31" s="7">
-        <v>51871</v>
+        <v>12797</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,49 +4914,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>480</v>
+        <v>274</v>
       </c>
       <c r="D32" s="7">
-        <v>533169</v>
+        <v>301535</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="H32" s="7">
-        <v>635</v>
+        <v>334</v>
       </c>
       <c r="I32" s="7">
-        <v>677401</v>
+        <v>343369</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="M32" s="7">
-        <v>1115</v>
+        <v>608</v>
       </c>
       <c r="N32" s="7">
-        <v>1210570</v>
+        <v>644904</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,102 +4965,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D33" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I33" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N33" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>7249</v>
+        <v>3162</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="H34" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" s="7">
-        <v>14546</v>
+        <v>13547</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="M34" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N34" s="7">
-        <v>21794</v>
+        <v>16709</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,43 +5075,43 @@
         <v>4353</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="H35" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I35" s="7">
-        <v>14023</v>
+        <v>13028</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="M35" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N35" s="7">
-        <v>18376</v>
+        <v>17381</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,49 +5120,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D36" s="7">
-        <v>14866</v>
+        <v>10702</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="H36" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I36" s="7">
-        <v>37005</v>
+        <v>28373</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="M36" s="7">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N36" s="7">
-        <v>51871</v>
+        <v>39074</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,49 +5171,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>480</v>
+        <v>206</v>
       </c>
       <c r="D37" s="7">
-        <v>533169</v>
+        <v>231634</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="H37" s="7">
-        <v>635</v>
+        <v>301</v>
       </c>
       <c r="I37" s="7">
-        <v>677401</v>
+        <v>334032</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="M37" s="7">
-        <v>1115</v>
+        <v>507</v>
       </c>
       <c r="N37" s="7">
-        <v>1210570</v>
+        <v>565666</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,63 +5222,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>222</v>
+      </c>
+      <c r="D38" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="7">
+        <v>350</v>
+      </c>
+      <c r="I38" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="7">
+        <v>572</v>
+      </c>
+      <c r="N38" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>7</v>
+      </c>
+      <c r="D39" s="7">
+        <v>7249</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H39" s="7">
+        <v>13</v>
+      </c>
+      <c r="I39" s="7">
+        <v>14546</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M39" s="7">
+        <v>20</v>
+      </c>
+      <c r="N39" s="7">
+        <v>21794</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>3</v>
+      </c>
+      <c r="D40" s="7">
+        <v>4353</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H40" s="7">
+        <v>12</v>
+      </c>
+      <c r="I40" s="7">
+        <v>14023</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M40" s="7">
+        <v>15</v>
+      </c>
+      <c r="N40" s="7">
+        <v>18376</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>14</v>
+      </c>
+      <c r="D41" s="7">
+        <v>14866</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H41" s="7">
+        <v>34</v>
+      </c>
+      <c r="I41" s="7">
+        <v>37005</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M41" s="7">
+        <v>48</v>
+      </c>
+      <c r="N41" s="7">
+        <v>51871</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>480</v>
+      </c>
+      <c r="D42" s="7">
+        <v>533169</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H42" s="7">
+        <v>635</v>
+      </c>
+      <c r="I42" s="7">
+        <v>677401</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1115</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1210570</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>504</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>559637</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="7">
         <v>694</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>742975</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="7">
         <v>1198</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>1302612</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>54</v>
+      <c r="O43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4493,8 +5549,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC62B13-608E-4BB8-9C53-AA90D2D31726}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3E9E21-BEBB-460A-857B-B5BD2DA5FEBD}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4510,7 +5566,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5746,49 +6802,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>2696</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>9535</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>12232</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,49 +6853,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>6915</v>
+        <v>999</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>4623</v>
+        <v>969</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="M30" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N30" s="7">
-        <v>11538</v>
+        <v>1967</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,49 +6904,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>10210</v>
+        <v>1572</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="H31" s="7">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="I31" s="7">
-        <v>32280</v>
+        <v>5144</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="N31" s="7">
-        <v>42491</v>
+        <v>6717</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,49 +6955,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>605</v>
+        <v>323</v>
       </c>
       <c r="D32" s="7">
-        <v>571506</v>
+        <v>331759</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
-        <v>618</v>
+        <v>348</v>
       </c>
       <c r="I32" s="7">
-        <v>731493</v>
+        <v>371649</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
-        <v>1223</v>
+        <v>671</v>
       </c>
       <c r="N32" s="7">
-        <v>1302999</v>
+        <v>703408</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,54 +7006,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D33" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I33" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N33" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6009,13 +7065,13 @@
         <v>2696</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -6024,13 +7080,13 @@
         <v>9535</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -6039,13 +7095,13 @@
         <v>12232</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,49 +7110,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="7">
-        <v>6915</v>
+        <v>5917</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" s="7">
-        <v>4623</v>
+        <v>3654</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M35" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N35" s="7">
-        <v>11538</v>
+        <v>9570</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,49 +7161,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="7">
-        <v>10210</v>
+        <v>8638</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="H36" s="7">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I36" s="7">
-        <v>32280</v>
+        <v>27136</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="M36" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N36" s="7">
-        <v>42491</v>
+        <v>35774</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,49 +7212,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>605</v>
+        <v>282</v>
       </c>
       <c r="D37" s="7">
-        <v>571506</v>
+        <v>239747</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
-        <v>618</v>
+        <v>270</v>
       </c>
       <c r="I37" s="7">
-        <v>731493</v>
+        <v>359844</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>119</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
-        <v>1223</v>
+        <v>552</v>
       </c>
       <c r="N37" s="7">
-        <v>1302999</v>
+        <v>599591</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6207,63 +7263,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>302</v>
+      </c>
+      <c r="D38" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="7">
+        <v>301</v>
+      </c>
+      <c r="I38" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="7">
+        <v>603</v>
+      </c>
+      <c r="N38" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>3</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2696</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H39" s="7">
+        <v>7</v>
+      </c>
+      <c r="I39" s="7">
+        <v>9535</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M39" s="7">
+        <v>10</v>
+      </c>
+      <c r="N39" s="7">
+        <v>12232</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>8</v>
+      </c>
+      <c r="D40" s="7">
+        <v>6915</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H40" s="7">
+        <v>4</v>
+      </c>
+      <c r="I40" s="7">
+        <v>4623</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M40" s="7">
+        <v>12</v>
+      </c>
+      <c r="N40" s="7">
+        <v>11538</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>11</v>
+      </c>
+      <c r="D41" s="7">
+        <v>10210</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H41" s="7">
+        <v>26</v>
+      </c>
+      <c r="I41" s="7">
+        <v>32280</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M41" s="7">
+        <v>37</v>
+      </c>
+      <c r="N41" s="7">
+        <v>42491</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>605</v>
+      </c>
+      <c r="D42" s="7">
+        <v>571506</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H42" s="7">
+        <v>618</v>
+      </c>
+      <c r="I42" s="7">
+        <v>731493</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1223</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1302999</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>627</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>591328</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="7">
         <v>655</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>777931</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="7">
         <v>1282</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>1369259</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>54</v>
+      <c r="O43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6276,8 +7590,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9290E7AD-BE68-4BF6-9F27-3E902658D22E}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9BB760-5E57-45B1-B87F-107B88A4C391}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6293,7 +7607,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7529,49 +8843,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>2275</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>12522</v>
+        <v>968</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="M29" s="7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>14797</v>
+        <v>968</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>131</v>
+        <v>281</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>133</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7580,49 +8894,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>3274</v>
+        <v>663</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="H30" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>7856</v>
+        <v>1186</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="M30" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N30" s="7">
-        <v>11130</v>
+        <v>1850</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>139</v>
+        <v>283</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,49 +8945,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>13606</v>
+        <v>2129</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>142</v>
+        <v>285</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="H31" s="7">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="I31" s="7">
-        <v>43496</v>
+        <v>7002</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="M31" s="7">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="N31" s="7">
-        <v>57102</v>
+        <v>9132</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,49 +8996,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>996</v>
+        <v>566</v>
       </c>
       <c r="D32" s="7">
-        <v>677198</v>
+        <v>365372</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>152</v>
+        <v>291</v>
       </c>
       <c r="H32" s="7">
-        <v>1592</v>
+        <v>807</v>
       </c>
       <c r="I32" s="7">
-        <v>961952</v>
+        <v>598801</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="M32" s="7">
-        <v>2588</v>
+        <v>1373</v>
       </c>
       <c r="N32" s="7">
-        <v>1639150</v>
+        <v>964174</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,54 +9047,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1026</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7">
-        <v>696353</v>
+        <v>368165</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H33" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I33" s="7">
-        <v>1025826</v>
+        <v>607958</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M33" s="7">
-        <v>2732</v>
+        <v>1396</v>
       </c>
       <c r="N33" s="7">
-        <v>1722179</v>
+        <v>976124</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7789,46 +9103,46 @@
         <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>2275</v>
+        <v>2147</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="H34" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I34" s="7">
-        <v>12522</v>
+        <v>10181</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>93</v>
+        <v>296</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="M34" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N34" s="7">
-        <v>14797</v>
+        <v>12328</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>133</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,49 +9151,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="7">
-        <v>3274</v>
+        <v>2415</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>106</v>
+        <v>299</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="H35" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I35" s="7">
-        <v>7856</v>
+        <v>6197</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>138</v>
+        <v>301</v>
       </c>
       <c r="M35" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N35" s="7">
-        <v>11130</v>
+        <v>8611</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>140</v>
+        <v>302</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,49 +9202,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D36" s="7">
-        <v>13606</v>
+        <v>10465</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>142</v>
+        <v>303</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>143</v>
+        <v>305</v>
       </c>
       <c r="H36" s="7">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I36" s="7">
-        <v>43496</v>
+        <v>31169</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>144</v>
+        <v>306</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>145</v>
+        <v>307</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>146</v>
+        <v>308</v>
       </c>
       <c r="M36" s="7">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N36" s="7">
-        <v>57102</v>
+        <v>41634</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>147</v>
+        <v>309</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>148</v>
+        <v>310</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>149</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,49 +9253,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>996</v>
+        <v>430</v>
       </c>
       <c r="D37" s="7">
-        <v>677198</v>
+        <v>266464</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
       <c r="H37" s="7">
-        <v>1592</v>
+        <v>785</v>
       </c>
       <c r="I37" s="7">
-        <v>961952</v>
+        <v>377937</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>154</v>
+        <v>316</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>155</v>
+        <v>317</v>
       </c>
       <c r="M37" s="7">
-        <v>2588</v>
+        <v>1215</v>
       </c>
       <c r="N37" s="7">
-        <v>1639150</v>
+        <v>644401</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>156</v>
+        <v>318</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>157</v>
+        <v>319</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>158</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,63 +9304,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>456</v>
+      </c>
+      <c r="D38" s="7">
+        <v>281491</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="7">
+        <v>880</v>
+      </c>
+      <c r="I38" s="7">
+        <v>425483</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N38" s="7">
+        <v>706974</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>5</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2147</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H39" s="7">
+        <v>22</v>
+      </c>
+      <c r="I39" s="7">
+        <v>11149</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M39" s="7">
+        <v>27</v>
+      </c>
+      <c r="N39" s="7">
+        <v>13296</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>5</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3078</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H40" s="7">
+        <v>14</v>
+      </c>
+      <c r="I40" s="7">
+        <v>7383</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M40" s="7">
+        <v>19</v>
+      </c>
+      <c r="N40" s="7">
+        <v>10461</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>20</v>
+      </c>
+      <c r="D41" s="7">
+        <v>12594</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="7">
+        <v>78</v>
+      </c>
+      <c r="I41" s="7">
+        <v>38171</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M41" s="7">
+        <v>98</v>
+      </c>
+      <c r="N41" s="7">
+        <v>50765</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>996</v>
+      </c>
+      <c r="D42" s="7">
+        <v>631836</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1592</v>
+      </c>
+      <c r="I42" s="7">
+        <v>976739</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M42" s="7">
+        <v>2588</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1608575</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1026</v>
       </c>
-      <c r="D38" s="7">
-        <v>696353</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>649656</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="7">
         <v>1706</v>
       </c>
-      <c r="I38" s="7">
-        <v>1025826</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1033442</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="7">
         <v>2732</v>
       </c>
-      <c r="N38" s="7">
-        <v>1722179</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>54</v>
+      <c r="N43" s="7">
+        <v>1683098</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
